--- a/Code/Results/Cases/Case_9_21/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_9_21/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1277 +421,1427 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.244128193619645</v>
+        <v>2.190872986662157</v>
       </c>
       <c r="C2">
-        <v>0.5642566669682765</v>
+        <v>0.5972166197567503</v>
       </c>
       <c r="D2">
-        <v>0.2509854940953318</v>
+        <v>0.2557471450121938</v>
       </c>
       <c r="E2">
-        <v>0.2145709525339399</v>
+        <v>0.2156373322382805</v>
       </c>
       <c r="F2">
-        <v>0.7246515633175008</v>
+        <v>0.7029138406035997</v>
       </c>
       <c r="G2">
-        <v>0.3887386009503757</v>
+        <v>0.3510499957984194</v>
       </c>
       <c r="H2">
-        <v>0.001377520532741094</v>
+        <v>0.001336042783137037</v>
       </c>
       <c r="I2">
-        <v>0.001906057665606919</v>
+        <v>0.002138575830035627</v>
       </c>
       <c r="J2">
-        <v>0.306999377179892</v>
+        <v>0.3383828008192893</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.2387506918638707</v>
+        <v>0.1290878619715876</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.04432708946772301</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>0.2376799729446191</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.876268947231992</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>1.41600151569358</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0.8968206214112655</v>
+      </c>
+      <c r="S2">
+        <v>1.356354191902483</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.955199397221463</v>
+        <v>1.915044120432498</v>
       </c>
       <c r="C3">
-        <v>0.4991065025861587</v>
+        <v>0.5218200930939645</v>
       </c>
       <c r="D3">
-        <v>0.2250454642503996</v>
+        <v>0.2290016839592539</v>
       </c>
       <c r="E3">
-        <v>0.1925941476787472</v>
+        <v>0.1936340122714242</v>
       </c>
       <c r="F3">
-        <v>0.6763112615188405</v>
+        <v>0.6585757579114713</v>
       </c>
       <c r="G3">
-        <v>0.3615181573821715</v>
+        <v>0.3274651221480056</v>
       </c>
       <c r="H3">
-        <v>0.0005347334091170275</v>
+        <v>0.0005353349359125126</v>
       </c>
       <c r="I3">
-        <v>0.001113858396999845</v>
+        <v>0.001375780346518862</v>
       </c>
       <c r="J3">
-        <v>0.2982001833467507</v>
+        <v>0.3291543461634987</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.2143701295010843</v>
+        <v>0.1339777355422136</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.04288301524221971</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>0.2137573888455293</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.8651468348344054</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>1.339587602542821</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>0.8775983523515833</v>
+      </c>
+      <c r="S3">
+        <v>1.290209384246467</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.777005088453336</v>
+        <v>1.744601804551138</v>
       </c>
       <c r="C4">
-        <v>0.4593230630132439</v>
+        <v>0.4759323267429352</v>
       </c>
       <c r="D4">
-        <v>0.2091745224373511</v>
+        <v>0.212658781166482</v>
       </c>
       <c r="E4">
-        <v>0.1790994701325346</v>
+        <v>0.1801272375448733</v>
       </c>
       <c r="F4">
-        <v>0.647071061736554</v>
+        <v>0.6316648973738808</v>
       </c>
       <c r="G4">
-        <v>0.3451376103112764</v>
+        <v>0.3132943498255116</v>
       </c>
       <c r="H4">
-        <v>0.0002017457998497729</v>
+        <v>0.0002125733056648205</v>
       </c>
       <c r="I4">
-        <v>0.000781503754959445</v>
+        <v>0.001036182828338283</v>
       </c>
       <c r="J4">
-        <v>0.2930375567938626</v>
+        <v>0.3235482656275224</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.1993657472507238</v>
+        <v>0.1371114264518312</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.04249835882899777</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>0.1990281647820851</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.8590682226251118</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>1.293869423025981</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>0.8666501250559264</v>
+      </c>
+      <c r="S4">
+        <v>1.250420163852439</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.703080944129255</v>
+        <v>1.673781967561098</v>
       </c>
       <c r="C5">
-        <v>0.4439782866158168</v>
+        <v>0.4581712188087295</v>
       </c>
       <c r="D5">
-        <v>0.2028149545241291</v>
+        <v>0.2061130900010255</v>
       </c>
       <c r="E5">
-        <v>0.1736197221998523</v>
+        <v>0.1746438753252733</v>
       </c>
       <c r="F5">
-        <v>0.6348132292339415</v>
+        <v>0.6203333495534835</v>
       </c>
       <c r="G5">
-        <v>0.3381555689025078</v>
+        <v>0.3072209122441549</v>
       </c>
       <c r="H5">
-        <v>0.0001096574611962886</v>
+        <v>0.0001209757969726777</v>
       </c>
       <c r="I5">
-        <v>0.0007441086923516416</v>
+        <v>0.001002432226726135</v>
       </c>
       <c r="J5">
-        <v>0.2907935647569744</v>
+        <v>0.3210771203966516</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.1932188204003822</v>
+        <v>0.1382846222500227</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.04241247582596941</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>0.1929924064561632</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.8572507121566133</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>1.27429268306247</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>0.8628938271690814</v>
+      </c>
+      <c r="S5">
+        <v>1.233198766161934</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.689438572820563</v>
+        <v>1.660670833288975</v>
       </c>
       <c r="C6">
-        <v>0.4424351073185449</v>
+        <v>0.456259983704399</v>
       </c>
       <c r="D6">
-        <v>0.2018766279636992</v>
+        <v>0.2051447881554509</v>
       </c>
       <c r="E6">
-        <v>0.1727356419103074</v>
+        <v>0.1737594306047043</v>
       </c>
       <c r="F6">
-        <v>0.6322386036502579</v>
+        <v>0.6179207930874497</v>
       </c>
       <c r="G6">
-        <v>0.3365304376629652</v>
+        <v>0.3057636772184722</v>
       </c>
       <c r="H6">
-        <v>9.665803724367983E-05</v>
+        <v>0.0001078377755372451</v>
       </c>
       <c r="I6">
-        <v>0.0008227281154562505</v>
+        <v>0.001098151393992275</v>
       </c>
       <c r="J6">
-        <v>0.2901822984732192</v>
+        <v>0.3204222363002174</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.1921705699150493</v>
+        <v>0.1383151634960953</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>0.04233910950483821</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>0.1919629701126624</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
-        <v>0.8575456561946595</v>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <v>1.269554585169715</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>0.8628920955021968</v>
+      </c>
+      <c r="S6">
+        <v>1.22888435278935</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.772295144721397</v>
+        <v>1.738725109182894</v>
       </c>
       <c r="C7">
-        <v>0.4618589604735917</v>
+        <v>0.4779265492404079</v>
       </c>
       <c r="D7">
-        <v>0.209408698895615</v>
+        <v>0.2130985127162575</v>
       </c>
       <c r="E7">
-        <v>0.1790968051595634</v>
+        <v>0.180168229457589</v>
       </c>
       <c r="F7">
-        <v>0.6454152469910071</v>
+        <v>0.6291096377099663</v>
       </c>
       <c r="G7">
-        <v>0.3437574328065125</v>
+        <v>0.3149134235503652</v>
       </c>
       <c r="H7">
-        <v>0.0001991553038134253</v>
+        <v>0.0002090325458685705</v>
       </c>
       <c r="I7">
-        <v>0.0009917076085335097</v>
+        <v>0.001288198084028025</v>
       </c>
       <c r="J7">
-        <v>0.2923461054627552</v>
+        <v>0.3184698986130314</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.1992095859597569</v>
+        <v>0.1365401482819415</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>0.0422382298375954</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>0.1988236792293137</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
       <c r="P7">
-        <v>0.8606584990584523</v>
+        <v>0</v>
       </c>
       <c r="Q7">
-        <v>1.289494315248291</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>0.8688795368688886</v>
+      </c>
+      <c r="S7">
+        <v>1.243624211174208</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.139702089711307</v>
+        <v>2.086870609581069</v>
       </c>
       <c r="C8">
-        <v>0.5454093431492595</v>
+        <v>0.5729242117318165</v>
       </c>
       <c r="D8">
-        <v>0.2424546432887951</v>
+        <v>0.2476307230694488</v>
       </c>
       <c r="E8">
-        <v>0.207088045635345</v>
+        <v>0.2082923840657429</v>
       </c>
       <c r="F8">
-        <v>0.705913146880917</v>
+        <v>0.6824991881311533</v>
       </c>
       <c r="G8">
-        <v>0.3775752302402964</v>
+        <v>0.3510685516770451</v>
       </c>
       <c r="H8">
-        <v>0.001043752126669517</v>
+        <v>0.001013630356812678</v>
       </c>
       <c r="I8">
-        <v>0.001850724739821175</v>
+        <v>0.002144849948300553</v>
       </c>
       <c r="J8">
-        <v>0.3030406740331131</v>
+        <v>0.3199920228507835</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.2302536022569655</v>
+        <v>0.1297981536433213</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>0.043157314202805</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>0.2291759274124345</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
       <c r="P8">
-        <v>0.8744812009234693</v>
+        <v>0</v>
       </c>
       <c r="Q8">
-        <v>1.383950385846134</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>0.8943908858746994</v>
+      </c>
+      <c r="S8">
+        <v>1.319595153587528</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.860816989774264</v>
+        <v>2.772256378878183</v>
       </c>
       <c r="C9">
-        <v>0.7062518644320903</v>
+        <v>0.7596882112715946</v>
       </c>
       <c r="D9">
-        <v>0.3072096680764531</v>
+        <v>0.3147210741114463</v>
       </c>
       <c r="E9">
-        <v>0.2619174856629201</v>
+        <v>0.2632504803750422</v>
       </c>
       <c r="F9">
-        <v>0.8310741174280309</v>
+        <v>0.796004169517758</v>
       </c>
       <c r="G9">
-        <v>0.4491270694737182</v>
+        <v>0.4161717333782491</v>
       </c>
       <c r="H9">
-        <v>0.00428818528286623</v>
+        <v>0.004045893006541013</v>
       </c>
       <c r="I9">
-        <v>0.004551325223544289</v>
+        <v>0.004552675575373755</v>
       </c>
       <c r="J9">
-        <v>0.3272238147607567</v>
+        <v>0.3401968927138626</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.2910757805061053</v>
+        <v>0.11884148063168</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>0.04966143934277056</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>0.2887655879899427</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
       <c r="P9">
-        <v>0.9048282490517323</v>
+        <v>0</v>
       </c>
       <c r="Q9">
-        <v>1.586935856252694</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>0.9461412579499608</v>
+      </c>
+      <c r="S9">
+        <v>1.492244717143421</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.374184677038841</v>
+        <v>3.251391426920804</v>
       </c>
       <c r="C10">
-        <v>0.8235520403700036</v>
+        <v>0.89237435900219</v>
       </c>
       <c r="D10">
-        <v>0.3475515010368042</v>
+        <v>0.3579260601784284</v>
       </c>
       <c r="E10">
-        <v>0.2916090656864156</v>
+        <v>0.2932533842282368</v>
       </c>
       <c r="F10">
-        <v>0.9120264755665346</v>
+        <v>0.8629835085596937</v>
       </c>
       <c r="G10">
-        <v>0.4967266543732904</v>
+        <v>0.4772974578483229</v>
       </c>
       <c r="H10">
-        <v>0.007735283153238015</v>
+        <v>0.007222225186011233</v>
       </c>
       <c r="I10">
-        <v>0.007546106456911339</v>
+        <v>0.007169993920890683</v>
       </c>
       <c r="J10">
-        <v>0.3428645171664471</v>
+        <v>0.3283813211504878</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.3208020165559731</v>
+        <v>0.1101168150399978</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>0.05542267066860518</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>0.317341050309679</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
       <c r="P10">
-        <v>0.9376243607910766</v>
+        <v>0</v>
       </c>
       <c r="Q10">
-        <v>1.721038178372879</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>0.9990231300186565</v>
+      </c>
+      <c r="S10">
+        <v>1.58913155430804</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>3.502884407288377</v>
+        <v>3.362215310719989</v>
       </c>
       <c r="C11">
-        <v>0.848467298016061</v>
+        <v>0.9095816643989565</v>
       </c>
       <c r="D11">
-        <v>0.3009415482462856</v>
+        <v>0.3126897680769503</v>
       </c>
       <c r="E11">
-        <v>0.2193079584264765</v>
+        <v>0.2209118017879987</v>
       </c>
       <c r="F11">
-        <v>0.8352577436879471</v>
+        <v>0.7782603054162536</v>
       </c>
       <c r="G11">
-        <v>0.4609446642587613</v>
+        <v>0.4815550865835831</v>
       </c>
       <c r="H11">
-        <v>0.02605378544396686</v>
+        <v>0.02545806349068513</v>
       </c>
       <c r="I11">
-        <v>0.00891509843830196</v>
+        <v>0.008447758519095849</v>
       </c>
       <c r="J11">
-        <v>0.3215928227685509</v>
+        <v>0.2651587512078422</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.2194424477994019</v>
+        <v>0.1000111978958849</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>0.05028312573834626</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>0.2159105453894554</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
       <c r="P11">
-        <v>1.006076686067729</v>
+        <v>0</v>
       </c>
       <c r="Q11">
-        <v>1.600804548772146</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>1.083157199485086</v>
+      </c>
+      <c r="S11">
+        <v>1.445909022617457</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>3.507485116613793</v>
+        <v>3.363841595423821</v>
       </c>
       <c r="C12">
-        <v>0.8397582936792389</v>
+        <v>0.8931195687731019</v>
       </c>
       <c r="D12">
-        <v>0.2558836718852291</v>
+        <v>0.2672258923441859</v>
       </c>
       <c r="E12">
-        <v>0.1621856470944216</v>
+        <v>0.1634436872520411</v>
       </c>
       <c r="F12">
-        <v>0.7579476772075395</v>
+        <v>0.7010677528436347</v>
       </c>
       <c r="G12">
-        <v>0.4233984802032467</v>
+        <v>0.4623691465951225</v>
       </c>
       <c r="H12">
-        <v>0.06417783713140324</v>
+        <v>0.0635812950190342</v>
       </c>
       <c r="I12">
-        <v>0.009050335437509105</v>
+        <v>0.008534053003058872</v>
       </c>
       <c r="J12">
-        <v>0.3015268189811735</v>
+        <v>0.2330306383145739</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.1478693223105267</v>
+        <v>0.09451147491833822</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>0.04556277886964821</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>0.1447529363403461</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
       <c r="P12">
-        <v>1.057158428137242</v>
+        <v>0</v>
       </c>
       <c r="Q12">
-        <v>1.479243764528775</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>1.140582090414725</v>
+      </c>
+      <c r="S12">
+        <v>1.322992937276695</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>3.410938673963301</v>
+        <v>3.279205045374169</v>
       </c>
       <c r="C13">
-        <v>0.8091351376464786</v>
+        <v>0.8560505239573217</v>
       </c>
       <c r="D13">
-        <v>0.2101634297277712</v>
+        <v>0.2195221654925206</v>
       </c>
       <c r="E13">
-        <v>0.113763560306225</v>
+        <v>0.1144541189853534</v>
       </c>
       <c r="F13">
-        <v>0.6736508483207189</v>
+        <v>0.624461851946279</v>
       </c>
       <c r="G13">
-        <v>0.3803495141135471</v>
+        <v>0.4151311633729051</v>
       </c>
       <c r="H13">
-        <v>0.1190781347428072</v>
+        <v>0.1185490485773215</v>
       </c>
       <c r="I13">
-        <v>0.008532460334140346</v>
+        <v>0.008092184802421798</v>
       </c>
       <c r="J13">
-        <v>0.2801829689765185</v>
+        <v>0.2231613184562704</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.09509179283863389</v>
+        <v>0.09140355669322986</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>0.04073906048005504</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>0.09271254171854437</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
       <c r="P13">
-        <v>1.099532399429918</v>
+        <v>0</v>
       </c>
       <c r="Q13">
-        <v>1.343258148297451</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>1.179795624683862</v>
+      </c>
+      <c r="S13">
+        <v>1.206489912716194</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>3.296777864688977</v>
+        <v>3.179804462799495</v>
       </c>
       <c r="C14">
-        <v>0.7787600138958339</v>
+        <v>0.8216959391217529</v>
       </c>
       <c r="D14">
-        <v>0.1786711715589178</v>
+        <v>0.1861405370991065</v>
       </c>
       <c r="E14">
-        <v>0.0854556766760517</v>
+        <v>0.08572739081211367</v>
       </c>
       <c r="F14">
-        <v>0.6120039392505916</v>
+        <v>0.5709610000160907</v>
       </c>
       <c r="G14">
-        <v>0.3478057137169515</v>
+        <v>0.3710163318900328</v>
       </c>
       <c r="H14">
-        <v>0.1677397471622015</v>
+        <v>0.1672818598201786</v>
       </c>
       <c r="I14">
-        <v>0.007967021336961366</v>
+        <v>0.007645630285743721</v>
       </c>
       <c r="J14">
-        <v>0.2646658187536843</v>
+        <v>0.2243345207774965</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.06955565826173249</v>
+        <v>0.09009193246613467</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>0.03734410640086416</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>0.06774756657594949</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
       <c r="P14">
-        <v>1.125857888441402</v>
+        <v>0</v>
       </c>
       <c r="Q14">
-        <v>1.241714720259466</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>1.199410481946813</v>
+      </c>
+      <c r="S14">
+        <v>1.126493068731349</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>3.246290885109886</v>
+        <v>3.135735138361611</v>
       </c>
       <c r="C15">
-        <v>0.7678828285905013</v>
+        <v>0.8100253623376261</v>
       </c>
       <c r="D15">
-        <v>0.1705909082992463</v>
+        <v>0.1773862460356952</v>
       </c>
       <c r="E15">
-        <v>0.07915550054868703</v>
+        <v>0.07931842276828505</v>
       </c>
       <c r="F15">
-        <v>0.5948788679438124</v>
+        <v>0.5570312911782054</v>
       </c>
       <c r="G15">
-        <v>0.338266539095784</v>
+        <v>0.3551774910955743</v>
       </c>
       <c r="H15">
-        <v>0.179965984052842</v>
+        <v>0.1795395280743435</v>
       </c>
       <c r="I15">
-        <v>0.007795273677201564</v>
+        <v>0.00754929252614911</v>
       </c>
       <c r="J15">
-        <v>0.2604068377574578</v>
+        <v>0.2279880291065339</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.06476612117701563</v>
+        <v>0.09007695818081185</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>0.03640269927792872</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>0.06312865729379347</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
       <c r="P15">
-        <v>1.130750516329513</v>
+        <v>0</v>
       </c>
       <c r="Q15">
-        <v>1.212540409778001</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>1.200780811567284</v>
+      </c>
+      <c r="S15">
+        <v>1.106042275086139</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.044974165117196</v>
+        <v>2.958382600139828</v>
       </c>
       <c r="C16">
-        <v>0.725924486164331</v>
+        <v>0.7684905188441746</v>
       </c>
       <c r="D16">
-        <v>0.1639354927974495</v>
+        <v>0.1687748284339534</v>
       </c>
       <c r="E16">
-        <v>0.07768513057219018</v>
+        <v>0.07773965737787236</v>
       </c>
       <c r="F16">
-        <v>0.577863549716092</v>
+        <v>0.550521212441339</v>
       </c>
       <c r="G16">
-        <v>0.3263647811661485</v>
+        <v>0.3148376599913405</v>
       </c>
       <c r="H16">
-        <v>0.1659184116048493</v>
+        <v>0.1656245687646276</v>
       </c>
       <c r="I16">
-        <v>0.006683944839729783</v>
+        <v>0.006674232670984104</v>
       </c>
       <c r="J16">
-        <v>0.257773110131339</v>
+        <v>0.2597904634998471</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.06431415891246672</v>
+        <v>0.09363298856051472</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>0.0358879316060623</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>0.06304791034532364</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
       <c r="P16">
-        <v>1.10613807177856</v>
+        <v>0</v>
       </c>
       <c r="Q16">
-        <v>1.181610359745235</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>1.160084600328403</v>
+      </c>
+      <c r="S16">
+        <v>1.104737099931185</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.951014930730878</v>
+        <v>2.872919245337869</v>
       </c>
       <c r="C17">
-        <v>0.7099705364296085</v>
+        <v>0.754047823447479</v>
       </c>
       <c r="D17">
-        <v>0.1750692677028951</v>
+        <v>0.1794577987833748</v>
       </c>
       <c r="E17">
-        <v>0.0904382828316983</v>
+        <v>0.09058125353782032</v>
       </c>
       <c r="F17">
-        <v>0.5970581465342235</v>
+        <v>0.5728368786063314</v>
       </c>
       <c r="G17">
-        <v>0.3343290405274075</v>
+        <v>0.3103744726745106</v>
       </c>
       <c r="H17">
-        <v>0.1274979135957182</v>
+        <v>0.1272607674255681</v>
       </c>
       <c r="I17">
-        <v>0.006164340438633786</v>
+        <v>0.006264678386022737</v>
       </c>
       <c r="J17">
-        <v>0.2639430386533093</v>
+        <v>0.2812845127394468</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.07546177952542976</v>
+        <v>0.09726151245548387</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>0.03709796357144413</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>0.07424121551219898</v>
       </c>
       <c r="O17">
         <v>0</v>
       </c>
       <c r="P17">
-        <v>1.073707071516395</v>
+        <v>0</v>
       </c>
       <c r="Q17">
-        <v>1.211304391560731</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>1.120705510226358</v>
+      </c>
+      <c r="S17">
+        <v>1.143641952166377</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.941250826868952</v>
+        <v>2.862460567001051</v>
       </c>
       <c r="C18">
-        <v>0.7121274269214553</v>
+        <v>0.7600980430424613</v>
       </c>
       <c r="D18">
-        <v>0.2044046013246117</v>
+        <v>0.209217611255113</v>
       </c>
       <c r="E18">
-        <v>0.1220687131586899</v>
+        <v>0.1224309992430683</v>
       </c>
       <c r="F18">
-        <v>0.6520591196893832</v>
+        <v>0.6267128667316868</v>
       </c>
       <c r="G18">
-        <v>0.3616858722757996</v>
+        <v>0.3305561679898545</v>
       </c>
       <c r="H18">
-        <v>0.07465225104041906</v>
+        <v>0.07442581779950075</v>
       </c>
       <c r="I18">
-        <v>0.005804487028855831</v>
+        <v>0.005888986493475912</v>
       </c>
       <c r="J18">
-        <v>0.2790105055470491</v>
+        <v>0.3022851131632649</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.1078803911542501</v>
+        <v>0.1018462993017248</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>0.04025994969996916</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>0.1064664228309518</v>
       </c>
       <c r="O18">
         <v>0</v>
       </c>
       <c r="P18">
-        <v>1.030165787507244</v>
+        <v>0</v>
       </c>
       <c r="Q18">
-        <v>1.300796996817411</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <v>1.075031994238998</v>
+      </c>
+      <c r="S18">
+        <v>1.230716446703354</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.992512620806565</v>
+        <v>2.907061960880526</v>
       </c>
       <c r="C19">
-        <v>0.7339721185747123</v>
+        <v>0.7882900089554425</v>
       </c>
       <c r="D19">
-        <v>0.2497263229218873</v>
+        <v>0.2555863740359854</v>
       </c>
       <c r="E19">
-        <v>0.1747076302531205</v>
+        <v>0.1753945833969048</v>
       </c>
       <c r="F19">
-        <v>0.7323080950787499</v>
+        <v>0.7030304042832896</v>
       </c>
       <c r="G19">
-        <v>0.4016717840007544</v>
+        <v>0.3656730267622947</v>
       </c>
       <c r="H19">
-        <v>0.03009196609862386</v>
+        <v>0.02983634375917887</v>
       </c>
       <c r="I19">
-        <v>0.006088176152306168</v>
+        <v>0.006174967584068547</v>
       </c>
       <c r="J19">
-        <v>0.2994889757729737</v>
+        <v>0.3232868491419651</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.1701488085069087</v>
+        <v>0.1066240984019053</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>0.04455274663010655</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>0.1683300683841793</v>
       </c>
       <c r="O19">
         <v>0</v>
       </c>
       <c r="P19">
-        <v>0.9863769349865663</v>
+        <v>0</v>
       </c>
       <c r="Q19">
-        <v>1.428445324842983</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>1.032168404684413</v>
+      </c>
+      <c r="S19">
+        <v>1.34850878575952</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.227232981599002</v>
+        <v>3.118592200979037</v>
       </c>
       <c r="C20">
-        <v>0.8013245538955971</v>
+        <v>0.8686869230164405</v>
       </c>
       <c r="D20">
-        <v>0.3376166300469379</v>
+        <v>0.3464692595195089</v>
       </c>
       <c r="E20">
-        <v>0.2835820247763934</v>
+        <v>0.2849796048978206</v>
       </c>
       <c r="F20">
-        <v>0.8853817680926284</v>
+        <v>0.8436317747142397</v>
       </c>
       <c r="G20">
-        <v>0.4797854434009281</v>
+        <v>0.4459837722211404</v>
       </c>
       <c r="H20">
-        <v>0.006707183030277175</v>
+        <v>0.006290512473173138</v>
       </c>
       <c r="I20">
-        <v>0.007354376172275856</v>
+        <v>0.007271996151236415</v>
       </c>
       <c r="J20">
-        <v>0.3364806219546495</v>
+        <v>0.3440507396535821</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.3121451984236359</v>
+        <v>0.1117658326790263</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>0.05315596553096213</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>0.3091739529585027</v>
       </c>
       <c r="O20">
         <v>0</v>
       </c>
       <c r="P20">
-        <v>0.9344975670425981</v>
+        <v>0</v>
       </c>
       <c r="Q20">
-        <v>1.671642699997335</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <v>0.9885073292636974</v>
+      </c>
+      <c r="S20">
+        <v>1.559502507546426</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>3.639821422923944</v>
+        <v>3.477306763507329</v>
       </c>
       <c r="C21">
-        <v>0.8959668484009455</v>
+        <v>0.9648368101144058</v>
       </c>
       <c r="D21">
-        <v>0.3806534090317086</v>
+        <v>0.3962467911513983</v>
       </c>
       <c r="E21">
-        <v>0.3230662654477854</v>
+        <v>0.3257154361465879</v>
       </c>
       <c r="F21">
-        <v>0.9698418285137365</v>
+        <v>0.8978047370833906</v>
       </c>
       <c r="G21">
-        <v>0.5280850154541668</v>
+        <v>0.564678577450124</v>
       </c>
       <c r="H21">
-        <v>0.009890400908679566</v>
+        <v>0.009116928360122137</v>
       </c>
       <c r="I21">
-        <v>0.009958070023580845</v>
+        <v>0.009375730888534051</v>
       </c>
       <c r="J21">
-        <v>0.3544097110519147</v>
+        <v>0.2702486221017324</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.3581486573072254</v>
+        <v>0.1050126417987318</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>0.05758151723001248</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>0.3531857397651947</v>
       </c>
       <c r="O21">
         <v>0</v>
       </c>
       <c r="P21">
-        <v>0.9517403400472517</v>
+        <v>0</v>
       </c>
       <c r="Q21">
-        <v>1.811912097946021</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <v>1.034805004813279</v>
+      </c>
+      <c r="S21">
+        <v>1.61879170154333</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>3.908317270642726</v>
+        <v>3.708177033517359</v>
       </c>
       <c r="C22">
-        <v>0.9525740762038026</v>
+        <v>1.020769986032406</v>
       </c>
       <c r="D22">
-        <v>0.4044852838685102</v>
+        <v>0.4248718738679997</v>
       </c>
       <c r="E22">
-        <v>0.3433505692795649</v>
+        <v>0.3469053120994445</v>
       </c>
       <c r="F22">
-        <v>1.021009042883151</v>
+        <v>0.9276037112133224</v>
       </c>
       <c r="G22">
-        <v>0.5585516966332591</v>
+        <v>0.6508207974512032</v>
       </c>
       <c r="H22">
-        <v>0.01219447632483939</v>
+        <v>0.01115113327007769</v>
       </c>
       <c r="I22">
-        <v>0.01158896457299363</v>
+        <v>0.01055572902241053</v>
       </c>
       <c r="J22">
-        <v>0.3656601496792149</v>
+        <v>0.225969415288489</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.3807500299228934</v>
+        <v>0.1007389389110287</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>0.06065705849878711</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>0.374439794684335</v>
       </c>
       <c r="O22">
         <v>0</v>
       </c>
       <c r="P22">
-        <v>0.9642973439210181</v>
+        <v>0</v>
       </c>
       <c r="Q22">
-        <v>1.900266760268295</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <v>1.06779252173186</v>
+      </c>
+      <c r="S22">
+        <v>1.649993927017249</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>3.769604007596115</v>
+        <v>3.593006215195317</v>
       </c>
       <c r="C23">
-        <v>0.9189588680862641</v>
+        <v>0.9890616718199112</v>
       </c>
       <c r="D23">
-        <v>0.3913676270213955</v>
+        <v>0.4085772135148602</v>
       </c>
       <c r="E23">
-        <v>0.3324300477204432</v>
+        <v>0.3353637049588656</v>
       </c>
       <c r="F23">
-        <v>0.9953972087031531</v>
+        <v>0.9158745691489258</v>
       </c>
       <c r="G23">
-        <v>0.5437622027274074</v>
+        <v>0.5969388456012155</v>
       </c>
       <c r="H23">
-        <v>0.01094752364189494</v>
+        <v>0.01006282279463709</v>
       </c>
       <c r="I23">
-        <v>0.01044160266778782</v>
+        <v>0.009602485745248579</v>
       </c>
       <c r="J23">
-        <v>0.3603983617818187</v>
+        <v>0.2573222861189919</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.368768302384396</v>
+        <v>0.1034986448725324</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>0.05966217747469571</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>0.3633060150969527</v>
       </c>
       <c r="O23">
         <v>0</v>
       </c>
       <c r="P23">
-        <v>0.9553675951096636</v>
+        <v>0</v>
       </c>
       <c r="Q23">
-        <v>1.857784608704947</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <v>1.045805186169375</v>
+      </c>
+      <c r="S23">
+        <v>1.644519886275049</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.236212919023956</v>
+        <v>3.127036630509451</v>
       </c>
       <c r="C24">
-        <v>0.7976552761116409</v>
+        <v>0.8654243285407688</v>
       </c>
       <c r="D24">
-        <v>0.3425299827381991</v>
+        <v>0.3514702617442538</v>
       </c>
       <c r="E24">
-        <v>0.2913379084522774</v>
+        <v>0.292769728691141</v>
       </c>
       <c r="F24">
-        <v>0.8970832880936399</v>
+        <v>0.8549337942705506</v>
       </c>
       <c r="G24">
-        <v>0.4864935276640949</v>
+        <v>0.4516745333716443</v>
       </c>
       <c r="H24">
-        <v>0.00674228581695635</v>
+        <v>0.006320093963722129</v>
       </c>
       <c r="I24">
-        <v>0.006940948222657006</v>
+        <v>0.006755825404693105</v>
       </c>
       <c r="J24">
-        <v>0.339925129592757</v>
+        <v>0.3480300543097172</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.3233525180810659</v>
+        <v>0.1129186178270807</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>0.05421544368915931</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>0.3203308755542054</v>
       </c>
       <c r="O24">
         <v>0</v>
       </c>
       <c r="P24">
-        <v>0.9267342441689692</v>
+        <v>0</v>
       </c>
       <c r="Q24">
-        <v>1.693073508485611</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <v>0.9803179013673144</v>
+      </c>
+      <c r="S24">
+        <v>1.579864270483569</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.659493644944689</v>
+        <v>2.582866190105619</v>
       </c>
       <c r="C25">
-        <v>0.6675706143905131</v>
+        <v>0.7149349136487899</v>
       </c>
       <c r="D25">
-        <v>0.2902095211957203</v>
+        <v>0.2967740930079117</v>
       </c>
       <c r="E25">
-        <v>0.2471985950569717</v>
+        <v>0.2484312045842216</v>
       </c>
       <c r="F25">
-        <v>0.7940485772408294</v>
+        <v>0.763680464692122</v>
       </c>
       <c r="G25">
-        <v>0.427082230370786</v>
+        <v>0.3916979778502849</v>
       </c>
       <c r="H25">
-        <v>0.003216208920450492</v>
+        <v>0.00305296115892828</v>
       </c>
       <c r="I25">
-        <v>0.004025362242207287</v>
+        <v>0.004223872825805053</v>
       </c>
       <c r="J25">
-        <v>0.3192557625272627</v>
+        <v>0.339584147742201</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.2744964902679214</v>
+        <v>0.1212585897198206</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>0.04709559841689526</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>0.2726020587802367</v>
       </c>
       <c r="O25">
         <v>0</v>
       </c>
       <c r="P25">
-        <v>0.8990399617220959</v>
+        <v>0</v>
       </c>
       <c r="Q25">
-        <v>1.523345393388865</v>
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0.9337489800293639</v>
+      </c>
+      <c r="S25">
+        <v>1.441175662526632</v>
       </c>
     </row>
   </sheetData>
